--- a/R_Logit_Models/Location_Choice/SocioEconomicVars/Runs_Outputs_Corrected.xlsx
+++ b/R_Logit_Models/Location_Choice/SocioEconomicVars/Runs_Outputs_Corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonza\Desktop\University\Summer 2020\TMG\GitHub_PORPOS\PORPOS-TMG\R_Logit_Models\Location_Choice\SocioEconomicVars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C6B09C-CE36-46AE-9D97-931E969EBE30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7746D6BC-E379-4759-808A-B0E86B5D434C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1031,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AG177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S168" sqref="S168"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9003,6 +9003,162 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="T4:T15">
+    <cfRule type="colorScale" priority="395">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4:U15">
+    <cfRule type="colorScale" priority="394">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4:V15">
+    <cfRule type="colorScale" priority="393">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4:W15">
+    <cfRule type="colorScale" priority="392">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4:X15">
+    <cfRule type="colorScale" priority="391">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y15">
+    <cfRule type="colorScale" priority="390">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AA15">
+    <cfRule type="colorScale" priority="388">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4:AB15">
+    <cfRule type="colorScale" priority="387">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4:AC15">
+    <cfRule type="colorScale" priority="386">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4:AD15">
+    <cfRule type="colorScale" priority="385">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4:AE15">
+    <cfRule type="colorScale" priority="384">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AF15">
+    <cfRule type="colorScale" priority="383">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4:AG15">
     <cfRule type="colorScale" priority="382">
       <colorScale>
         <cfvo type="min"/>
@@ -9014,7 +9170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U15">
+  <conditionalFormatting sqref="J12">
     <cfRule type="colorScale" priority="381">
       <colorScale>
         <cfvo type="min"/>
@@ -9026,7 +9182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V15">
+  <conditionalFormatting sqref="K12">
     <cfRule type="colorScale" priority="380">
       <colorScale>
         <cfvo type="min"/>
@@ -9038,7 +9194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W15">
+  <conditionalFormatting sqref="L12">
     <cfRule type="colorScale" priority="379">
       <colorScale>
         <cfvo type="min"/>
@@ -9050,7 +9206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X15">
+  <conditionalFormatting sqref="M12">
     <cfRule type="colorScale" priority="378">
       <colorScale>
         <cfvo type="min"/>
@@ -9062,7 +9218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y15">
+  <conditionalFormatting sqref="N12">
     <cfRule type="colorScale" priority="377">
       <colorScale>
         <cfvo type="min"/>
@@ -9074,7 +9230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z15">
+  <conditionalFormatting sqref="O12">
     <cfRule type="colorScale" priority="376">
       <colorScale>
         <cfvo type="min"/>
@@ -9086,7 +9242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA15">
+  <conditionalFormatting sqref="P12">
     <cfRule type="colorScale" priority="375">
       <colorScale>
         <cfvo type="min"/>
@@ -9098,7 +9254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB15">
+  <conditionalFormatting sqref="J23">
     <cfRule type="colorScale" priority="374">
       <colorScale>
         <cfvo type="min"/>
@@ -9110,7 +9266,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AC15">
+  <conditionalFormatting sqref="K23">
     <cfRule type="colorScale" priority="373">
       <colorScale>
         <cfvo type="min"/>
@@ -9122,7 +9278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD4:AD15">
+  <conditionalFormatting sqref="L23">
     <cfRule type="colorScale" priority="372">
       <colorScale>
         <cfvo type="min"/>
@@ -9134,7 +9290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE4:AE15">
+  <conditionalFormatting sqref="M23">
     <cfRule type="colorScale" priority="371">
       <colorScale>
         <cfvo type="min"/>
@@ -9146,7 +9302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4:AF15">
+  <conditionalFormatting sqref="N23">
     <cfRule type="colorScale" priority="370">
       <colorScale>
         <cfvo type="min"/>
@@ -9158,7 +9314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG4:AG15">
+  <conditionalFormatting sqref="O23">
     <cfRule type="colorScale" priority="369">
       <colorScale>
         <cfvo type="min"/>
@@ -9170,7 +9326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
+  <conditionalFormatting sqref="P23">
     <cfRule type="colorScale" priority="368">
       <colorScale>
         <cfvo type="min"/>
@@ -9182,7 +9338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="J34">
     <cfRule type="colorScale" priority="367">
       <colorScale>
         <cfvo type="min"/>
@@ -9194,7 +9350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="K34">
     <cfRule type="colorScale" priority="366">
       <colorScale>
         <cfvo type="min"/>
@@ -9206,7 +9362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
+  <conditionalFormatting sqref="L34">
     <cfRule type="colorScale" priority="365">
       <colorScale>
         <cfvo type="min"/>
@@ -9218,7 +9374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
+  <conditionalFormatting sqref="M34">
     <cfRule type="colorScale" priority="364">
       <colorScale>
         <cfvo type="min"/>
@@ -9230,7 +9386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O12">
+  <conditionalFormatting sqref="N34">
     <cfRule type="colorScale" priority="363">
       <colorScale>
         <cfvo type="min"/>
@@ -9242,7 +9398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
+  <conditionalFormatting sqref="O34">
     <cfRule type="colorScale" priority="362">
       <colorScale>
         <cfvo type="min"/>
@@ -9254,7 +9410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
+  <conditionalFormatting sqref="P34">
     <cfRule type="colorScale" priority="361">
       <colorScale>
         <cfvo type="min"/>
@@ -9266,7 +9422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="J45">
     <cfRule type="colorScale" priority="360">
       <colorScale>
         <cfvo type="min"/>
@@ -9278,7 +9434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
+  <conditionalFormatting sqref="K45">
     <cfRule type="colorScale" priority="359">
       <colorScale>
         <cfvo type="min"/>
@@ -9290,7 +9446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
+  <conditionalFormatting sqref="L45">
     <cfRule type="colorScale" priority="358">
       <colorScale>
         <cfvo type="min"/>
@@ -9302,7 +9458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="M45">
     <cfRule type="colorScale" priority="357">
       <colorScale>
         <cfvo type="min"/>
@@ -9314,7 +9470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
+  <conditionalFormatting sqref="N45">
     <cfRule type="colorScale" priority="356">
       <colorScale>
         <cfvo type="min"/>
@@ -9326,7 +9482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
+  <conditionalFormatting sqref="O45">
     <cfRule type="colorScale" priority="355">
       <colorScale>
         <cfvo type="min"/>
@@ -9338,7 +9494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J34">
+  <conditionalFormatting sqref="P45">
     <cfRule type="colorScale" priority="354">
       <colorScale>
         <cfvo type="min"/>
@@ -9350,7 +9506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
+  <conditionalFormatting sqref="J56">
     <cfRule type="colorScale" priority="353">
       <colorScale>
         <cfvo type="min"/>
@@ -9362,7 +9518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="K56">
     <cfRule type="colorScale" priority="352">
       <colorScale>
         <cfvo type="min"/>
@@ -9374,7 +9530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
+  <conditionalFormatting sqref="L56">
     <cfRule type="colorScale" priority="351">
       <colorScale>
         <cfvo type="min"/>
@@ -9386,7 +9542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
+  <conditionalFormatting sqref="M56">
     <cfRule type="colorScale" priority="350">
       <colorScale>
         <cfvo type="min"/>
@@ -9398,7 +9554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
+  <conditionalFormatting sqref="N56">
     <cfRule type="colorScale" priority="349">
       <colorScale>
         <cfvo type="min"/>
@@ -9410,7 +9566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34">
+  <conditionalFormatting sqref="O56">
     <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
@@ -9422,7 +9578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="P56">
     <cfRule type="colorScale" priority="347">
       <colorScale>
         <cfvo type="min"/>
@@ -9434,7 +9590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
+  <conditionalFormatting sqref="J67">
     <cfRule type="colorScale" priority="346">
       <colorScale>
         <cfvo type="min"/>
@@ -9446,7 +9602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
+  <conditionalFormatting sqref="K67">
     <cfRule type="colorScale" priority="345">
       <colorScale>
         <cfvo type="min"/>
@@ -9458,7 +9614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M45">
+  <conditionalFormatting sqref="L67">
     <cfRule type="colorScale" priority="344">
       <colorScale>
         <cfvo type="min"/>
@@ -9470,7 +9626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45">
+  <conditionalFormatting sqref="M67">
     <cfRule type="colorScale" priority="343">
       <colorScale>
         <cfvo type="min"/>
@@ -9482,7 +9638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O45">
+  <conditionalFormatting sqref="N67">
     <cfRule type="colorScale" priority="342">
       <colorScale>
         <cfvo type="min"/>
@@ -9494,7 +9650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45">
+  <conditionalFormatting sqref="O67">
     <cfRule type="colorScale" priority="341">
       <colorScale>
         <cfvo type="min"/>
@@ -9506,7 +9662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
+  <conditionalFormatting sqref="P67">
     <cfRule type="colorScale" priority="340">
       <colorScale>
         <cfvo type="min"/>
@@ -9518,7 +9674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K56">
+  <conditionalFormatting sqref="J78">
     <cfRule type="colorScale" priority="339">
       <colorScale>
         <cfvo type="min"/>
@@ -9530,7 +9686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L56">
+  <conditionalFormatting sqref="K78">
     <cfRule type="colorScale" priority="338">
       <colorScale>
         <cfvo type="min"/>
@@ -9542,7 +9698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M56">
+  <conditionalFormatting sqref="L78">
     <cfRule type="colorScale" priority="337">
       <colorScale>
         <cfvo type="min"/>
@@ -9554,7 +9710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N56">
+  <conditionalFormatting sqref="M78">
     <cfRule type="colorScale" priority="336">
       <colorScale>
         <cfvo type="min"/>
@@ -9566,7 +9722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O56">
+  <conditionalFormatting sqref="N78">
     <cfRule type="colorScale" priority="335">
       <colorScale>
         <cfvo type="min"/>
@@ -9578,7 +9734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P56">
+  <conditionalFormatting sqref="O78">
     <cfRule type="colorScale" priority="334">
       <colorScale>
         <cfvo type="min"/>
@@ -9590,7 +9746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
+  <conditionalFormatting sqref="P78">
     <cfRule type="colorScale" priority="333">
       <colorScale>
         <cfvo type="min"/>
@@ -9602,7 +9758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K67">
+  <conditionalFormatting sqref="J89">
     <cfRule type="colorScale" priority="332">
       <colorScale>
         <cfvo type="min"/>
@@ -9614,7 +9770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L67">
+  <conditionalFormatting sqref="K89">
     <cfRule type="colorScale" priority="331">
       <colorScale>
         <cfvo type="min"/>
@@ -9626,7 +9782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M67">
+  <conditionalFormatting sqref="L89">
     <cfRule type="colorScale" priority="330">
       <colorScale>
         <cfvo type="min"/>
@@ -9638,7 +9794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
+  <conditionalFormatting sqref="M89">
     <cfRule type="colorScale" priority="329">
       <colorScale>
         <cfvo type="min"/>
@@ -9650,7 +9806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O67">
+  <conditionalFormatting sqref="N89">
     <cfRule type="colorScale" priority="328">
       <colorScale>
         <cfvo type="min"/>
@@ -9662,7 +9818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P67">
+  <conditionalFormatting sqref="O89">
     <cfRule type="colorScale" priority="327">
       <colorScale>
         <cfvo type="min"/>
@@ -9674,7 +9830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J78">
+  <conditionalFormatting sqref="P89">
     <cfRule type="colorScale" priority="326">
       <colorScale>
         <cfvo type="min"/>
@@ -9686,7 +9842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K78">
+  <conditionalFormatting sqref="J100">
     <cfRule type="colorScale" priority="325">
       <colorScale>
         <cfvo type="min"/>
@@ -9698,7 +9854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L78">
+  <conditionalFormatting sqref="K100">
     <cfRule type="colorScale" priority="324">
       <colorScale>
         <cfvo type="min"/>
@@ -9710,7 +9866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M78">
+  <conditionalFormatting sqref="L100">
     <cfRule type="colorScale" priority="323">
       <colorScale>
         <cfvo type="min"/>
@@ -9722,7 +9878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N78">
+  <conditionalFormatting sqref="M100">
     <cfRule type="colorScale" priority="322">
       <colorScale>
         <cfvo type="min"/>
@@ -9734,7 +9890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O78">
+  <conditionalFormatting sqref="N100">
     <cfRule type="colorScale" priority="321">
       <colorScale>
         <cfvo type="min"/>
@@ -9746,7 +9902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P78">
+  <conditionalFormatting sqref="O100">
     <cfRule type="colorScale" priority="320">
       <colorScale>
         <cfvo type="min"/>
@@ -9758,7 +9914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J89">
+  <conditionalFormatting sqref="P100">
     <cfRule type="colorScale" priority="319">
       <colorScale>
         <cfvo type="min"/>
@@ -9770,7 +9926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K89">
+  <conditionalFormatting sqref="J111">
     <cfRule type="colorScale" priority="318">
       <colorScale>
         <cfvo type="min"/>
@@ -9782,7 +9938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L89">
+  <conditionalFormatting sqref="K111">
     <cfRule type="colorScale" priority="317">
       <colorScale>
         <cfvo type="min"/>
@@ -9794,7 +9950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M89">
+  <conditionalFormatting sqref="L111">
     <cfRule type="colorScale" priority="316">
       <colorScale>
         <cfvo type="min"/>
@@ -9806,7 +9962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89">
+  <conditionalFormatting sqref="M111">
     <cfRule type="colorScale" priority="315">
       <colorScale>
         <cfvo type="min"/>
@@ -9818,7 +9974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O89">
+  <conditionalFormatting sqref="N111">
     <cfRule type="colorScale" priority="314">
       <colorScale>
         <cfvo type="min"/>
@@ -9830,7 +9986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P89">
+  <conditionalFormatting sqref="O111">
     <cfRule type="colorScale" priority="313">
       <colorScale>
         <cfvo type="min"/>
@@ -9842,7 +9998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
+  <conditionalFormatting sqref="P111">
     <cfRule type="colorScale" priority="312">
       <colorScale>
         <cfvo type="min"/>
@@ -9854,7 +10010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K100">
+  <conditionalFormatting sqref="J122">
     <cfRule type="colorScale" priority="311">
       <colorScale>
         <cfvo type="min"/>
@@ -9866,7 +10022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L100">
+  <conditionalFormatting sqref="K122">
     <cfRule type="colorScale" priority="310">
       <colorScale>
         <cfvo type="min"/>
@@ -9878,7 +10034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M100">
+  <conditionalFormatting sqref="L122">
     <cfRule type="colorScale" priority="309">
       <colorScale>
         <cfvo type="min"/>
@@ -9890,7 +10046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N100">
+  <conditionalFormatting sqref="M122">
     <cfRule type="colorScale" priority="308">
       <colorScale>
         <cfvo type="min"/>
@@ -9902,7 +10058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O100">
+  <conditionalFormatting sqref="N122">
     <cfRule type="colorScale" priority="307">
       <colorScale>
         <cfvo type="min"/>
@@ -9914,7 +10070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P100">
+  <conditionalFormatting sqref="O122">
     <cfRule type="colorScale" priority="306">
       <colorScale>
         <cfvo type="min"/>
@@ -9926,7 +10082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J111">
+  <conditionalFormatting sqref="P122">
     <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
@@ -9938,7 +10094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K111">
+  <conditionalFormatting sqref="J133">
     <cfRule type="colorScale" priority="304">
       <colorScale>
         <cfvo type="min"/>
@@ -9950,7 +10106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L111">
+  <conditionalFormatting sqref="K133">
     <cfRule type="colorScale" priority="303">
       <colorScale>
         <cfvo type="min"/>
@@ -9962,7 +10118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M111">
+  <conditionalFormatting sqref="L133">
     <cfRule type="colorScale" priority="302">
       <colorScale>
         <cfvo type="min"/>
@@ -9974,7 +10130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N111">
+  <conditionalFormatting sqref="M133">
     <cfRule type="colorScale" priority="301">
       <colorScale>
         <cfvo type="min"/>
@@ -9986,7 +10142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O111">
+  <conditionalFormatting sqref="N133">
     <cfRule type="colorScale" priority="300">
       <colorScale>
         <cfvo type="min"/>
@@ -9998,7 +10154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P111">
+  <conditionalFormatting sqref="O133">
     <cfRule type="colorScale" priority="299">
       <colorScale>
         <cfvo type="min"/>
@@ -10010,7 +10166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J122">
+  <conditionalFormatting sqref="P133">
     <cfRule type="colorScale" priority="298">
       <colorScale>
         <cfvo type="min"/>
@@ -10022,7 +10178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K122">
+  <conditionalFormatting sqref="J144">
     <cfRule type="colorScale" priority="297">
       <colorScale>
         <cfvo type="min"/>
@@ -10034,7 +10190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L122">
+  <conditionalFormatting sqref="K144">
     <cfRule type="colorScale" priority="296">
       <colorScale>
         <cfvo type="min"/>
@@ -10046,7 +10202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M122">
+  <conditionalFormatting sqref="L144">
     <cfRule type="colorScale" priority="295">
       <colorScale>
         <cfvo type="min"/>
@@ -10058,7 +10214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N122">
+  <conditionalFormatting sqref="M144">
     <cfRule type="colorScale" priority="294">
       <colorScale>
         <cfvo type="min"/>
@@ -10070,7 +10226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O122">
+  <conditionalFormatting sqref="N144">
     <cfRule type="colorScale" priority="293">
       <colorScale>
         <cfvo type="min"/>
@@ -10082,7 +10238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P122">
+  <conditionalFormatting sqref="O144">
     <cfRule type="colorScale" priority="292">
       <colorScale>
         <cfvo type="min"/>
@@ -10094,7 +10250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J133">
+  <conditionalFormatting sqref="P144">
     <cfRule type="colorScale" priority="291">
       <colorScale>
         <cfvo type="min"/>
@@ -10106,7 +10262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K133">
+  <conditionalFormatting sqref="J155">
     <cfRule type="colorScale" priority="290">
       <colorScale>
         <cfvo type="min"/>
@@ -10118,7 +10274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L133">
+  <conditionalFormatting sqref="K155">
     <cfRule type="colorScale" priority="289">
       <colorScale>
         <cfvo type="min"/>
@@ -10130,7 +10286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M133">
+  <conditionalFormatting sqref="L155">
     <cfRule type="colorScale" priority="288">
       <colorScale>
         <cfvo type="min"/>
@@ -10142,7 +10298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N133">
+  <conditionalFormatting sqref="M155">
     <cfRule type="colorScale" priority="287">
       <colorScale>
         <cfvo type="min"/>
@@ -10154,7 +10310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O133">
+  <conditionalFormatting sqref="N155">
     <cfRule type="colorScale" priority="286">
       <colorScale>
         <cfvo type="min"/>
@@ -10166,7 +10322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P133">
+  <conditionalFormatting sqref="O155">
     <cfRule type="colorScale" priority="285">
       <colorScale>
         <cfvo type="min"/>
@@ -10178,7 +10334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J144">
+  <conditionalFormatting sqref="P155">
     <cfRule type="colorScale" priority="284">
       <colorScale>
         <cfvo type="min"/>
@@ -10190,7 +10346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K144">
+  <conditionalFormatting sqref="J166">
     <cfRule type="colorScale" priority="283">
       <colorScale>
         <cfvo type="min"/>
@@ -10202,7 +10358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L144">
+  <conditionalFormatting sqref="K166">
     <cfRule type="colorScale" priority="282">
       <colorScale>
         <cfvo type="min"/>
@@ -10214,7 +10370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M144">
+  <conditionalFormatting sqref="L166">
     <cfRule type="colorScale" priority="281">
       <colorScale>
         <cfvo type="min"/>
@@ -10226,7 +10382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N144">
+  <conditionalFormatting sqref="M166">
     <cfRule type="colorScale" priority="280">
       <colorScale>
         <cfvo type="min"/>
@@ -10238,7 +10394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O144">
+  <conditionalFormatting sqref="N166">
     <cfRule type="colorScale" priority="279">
       <colorScale>
         <cfvo type="min"/>
@@ -10250,7 +10406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P144">
+  <conditionalFormatting sqref="O166">
     <cfRule type="colorScale" priority="278">
       <colorScale>
         <cfvo type="min"/>
@@ -10262,7 +10418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J155">
+  <conditionalFormatting sqref="P166">
     <cfRule type="colorScale" priority="277">
       <colorScale>
         <cfvo type="min"/>
@@ -10274,7 +10430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K155">
+  <conditionalFormatting sqref="J177">
     <cfRule type="colorScale" priority="276">
       <colorScale>
         <cfvo type="min"/>
@@ -10286,7 +10442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L155">
+  <conditionalFormatting sqref="K177">
     <cfRule type="colorScale" priority="275">
       <colorScale>
         <cfvo type="min"/>
@@ -10298,7 +10454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M155">
+  <conditionalFormatting sqref="L177">
     <cfRule type="colorScale" priority="274">
       <colorScale>
         <cfvo type="min"/>
@@ -10310,7 +10466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N155">
+  <conditionalFormatting sqref="M177">
     <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
@@ -10322,7 +10478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O155">
+  <conditionalFormatting sqref="N177">
     <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
@@ -10334,7 +10490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P155">
+  <conditionalFormatting sqref="O177">
     <cfRule type="colorScale" priority="271">
       <colorScale>
         <cfvo type="min"/>
@@ -10346,7 +10502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J166">
+  <conditionalFormatting sqref="P177">
     <cfRule type="colorScale" priority="270">
       <colorScale>
         <cfvo type="min"/>
@@ -10358,7 +10514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K166">
+  <conditionalFormatting sqref="I4:I11">
     <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
@@ -10370,7 +10526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L166">
+  <conditionalFormatting sqref="J4:J12">
     <cfRule type="colorScale" priority="268">
       <colorScale>
         <cfvo type="min"/>
@@ -10382,7 +10538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M166">
+  <conditionalFormatting sqref="K4:K12">
     <cfRule type="colorScale" priority="267">
       <colorScale>
         <cfvo type="min"/>
@@ -10394,7 +10550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N166">
+  <conditionalFormatting sqref="L4:L12">
     <cfRule type="colorScale" priority="266">
       <colorScale>
         <cfvo type="min"/>
@@ -10406,7 +10562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O166">
+  <conditionalFormatting sqref="M4:M12">
     <cfRule type="colorScale" priority="265">
       <colorScale>
         <cfvo type="min"/>
@@ -10418,7 +10574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P166">
+  <conditionalFormatting sqref="N4:N12">
     <cfRule type="colorScale" priority="264">
       <colorScale>
         <cfvo type="min"/>
@@ -10430,7 +10586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J177">
+  <conditionalFormatting sqref="O4:O12">
     <cfRule type="colorScale" priority="263">
       <colorScale>
         <cfvo type="min"/>
@@ -10442,7 +10598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K177">
+  <conditionalFormatting sqref="P4:P12">
     <cfRule type="colorScale" priority="262">
       <colorScale>
         <cfvo type="min"/>
@@ -10454,7 +10610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L177">
+  <conditionalFormatting sqref="I15:I22">
     <cfRule type="colorScale" priority="261">
       <colorScale>
         <cfvo type="min"/>
@@ -10466,7 +10622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M177">
+  <conditionalFormatting sqref="J15:J23">
     <cfRule type="colorScale" priority="260">
       <colorScale>
         <cfvo type="min"/>
@@ -10478,7 +10634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N177">
+  <conditionalFormatting sqref="K15:K23">
     <cfRule type="colorScale" priority="259">
       <colorScale>
         <cfvo type="min"/>
@@ -10490,7 +10646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O177">
+  <conditionalFormatting sqref="L15:L23">
     <cfRule type="colorScale" priority="258">
       <colorScale>
         <cfvo type="min"/>
@@ -10502,7 +10658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P177">
+  <conditionalFormatting sqref="M15:M23">
     <cfRule type="colorScale" priority="257">
       <colorScale>
         <cfvo type="min"/>
@@ -10514,7 +10670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I11">
+  <conditionalFormatting sqref="N15:N23">
     <cfRule type="colorScale" priority="256">
       <colorScale>
         <cfvo type="min"/>
@@ -10526,7 +10682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J12">
+  <conditionalFormatting sqref="O15:O23">
     <cfRule type="colorScale" priority="255">
       <colorScale>
         <cfvo type="min"/>
@@ -10538,7 +10694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K12">
+  <conditionalFormatting sqref="P15:P23">
     <cfRule type="colorScale" priority="254">
       <colorScale>
         <cfvo type="min"/>
@@ -10550,7 +10706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L12">
+  <conditionalFormatting sqref="I26:I33">
     <cfRule type="colorScale" priority="253">
       <colorScale>
         <cfvo type="min"/>
@@ -10562,7 +10718,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M12">
+  <conditionalFormatting sqref="J26:J34">
     <cfRule type="colorScale" priority="252">
       <colorScale>
         <cfvo type="min"/>
@@ -10574,7 +10730,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N12">
+  <conditionalFormatting sqref="K26:K34">
     <cfRule type="colorScale" priority="251">
       <colorScale>
         <cfvo type="min"/>
@@ -10586,7 +10742,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4:O12">
+  <conditionalFormatting sqref="L26:L34">
     <cfRule type="colorScale" priority="250">
       <colorScale>
         <cfvo type="min"/>
@@ -10598,7 +10754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:P12">
+  <conditionalFormatting sqref="M26:M34">
     <cfRule type="colorScale" priority="249">
       <colorScale>
         <cfvo type="min"/>
@@ -10610,7 +10766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I22">
+  <conditionalFormatting sqref="N26:N34">
     <cfRule type="colorScale" priority="248">
       <colorScale>
         <cfvo type="min"/>
@@ -10622,7 +10778,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J23">
+  <conditionalFormatting sqref="O26:O34">
     <cfRule type="colorScale" priority="247">
       <colorScale>
         <cfvo type="min"/>
@@ -10634,7 +10790,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K23">
+  <conditionalFormatting sqref="P26:P34">
     <cfRule type="colorScale" priority="246">
       <colorScale>
         <cfvo type="min"/>
@@ -10646,7 +10802,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:L23">
+  <conditionalFormatting sqref="I37:I44">
     <cfRule type="colorScale" priority="245">
       <colorScale>
         <cfvo type="min"/>
@@ -10658,7 +10814,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:M23">
+  <conditionalFormatting sqref="J37:J45">
     <cfRule type="colorScale" priority="244">
       <colorScale>
         <cfvo type="min"/>
@@ -10670,7 +10826,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N23">
+  <conditionalFormatting sqref="K37:K45">
     <cfRule type="colorScale" priority="243">
       <colorScale>
         <cfvo type="min"/>
@@ -10682,7 +10838,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O15:O23">
+  <conditionalFormatting sqref="L37:L45">
     <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
@@ -10694,7 +10850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P23">
+  <conditionalFormatting sqref="M37:M45">
     <cfRule type="colorScale" priority="241">
       <colorScale>
         <cfvo type="min"/>
@@ -10706,7 +10862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I33">
+  <conditionalFormatting sqref="N37:N45">
     <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
@@ -10718,7 +10874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J34">
+  <conditionalFormatting sqref="O37:O45">
     <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
@@ -10730,7 +10886,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K34">
+  <conditionalFormatting sqref="P37:P45">
     <cfRule type="colorScale" priority="238">
       <colorScale>
         <cfvo type="min"/>
@@ -10742,7 +10898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:L34">
+  <conditionalFormatting sqref="I48:I55">
     <cfRule type="colorScale" priority="237">
       <colorScale>
         <cfvo type="min"/>
@@ -10754,7 +10910,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M26:M34">
+  <conditionalFormatting sqref="J48:J56">
     <cfRule type="colorScale" priority="236">
       <colorScale>
         <cfvo type="min"/>
@@ -10766,7 +10922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26:N34">
+  <conditionalFormatting sqref="K48:K56">
     <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
@@ -10778,7 +10934,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O34">
+  <conditionalFormatting sqref="L48:L56">
     <cfRule type="colorScale" priority="234">
       <colorScale>
         <cfvo type="min"/>
@@ -10790,7 +10946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P34">
+  <conditionalFormatting sqref="M48:M56">
     <cfRule type="colorScale" priority="233">
       <colorScale>
         <cfvo type="min"/>
@@ -10802,7 +10958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I44">
+  <conditionalFormatting sqref="N48:N56">
     <cfRule type="colorScale" priority="232">
       <colorScale>
         <cfvo type="min"/>
@@ -10814,7 +10970,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J45">
+  <conditionalFormatting sqref="O48:O56">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -10826,7 +10982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:K45">
+  <conditionalFormatting sqref="P48:P56">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="min"/>
@@ -10838,7 +10994,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L37:L45">
+  <conditionalFormatting sqref="I59:I66">
     <cfRule type="colorScale" priority="229">
       <colorScale>
         <cfvo type="min"/>
@@ -10850,7 +11006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M37:M45">
+  <conditionalFormatting sqref="J59:J67">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="min"/>
@@ -10862,7 +11018,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37:N45">
+  <conditionalFormatting sqref="K59:K67">
     <cfRule type="colorScale" priority="227">
       <colorScale>
         <cfvo type="min"/>
@@ -10874,7 +11030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37:O45">
+  <conditionalFormatting sqref="L59:L67">
     <cfRule type="colorScale" priority="226">
       <colorScale>
         <cfvo type="min"/>
@@ -10886,7 +11042,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37:P45">
+  <conditionalFormatting sqref="M59:M67">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
@@ -10898,7 +11054,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48:I55">
+  <conditionalFormatting sqref="N59:N67">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="min"/>
@@ -10910,7 +11066,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J56">
+  <conditionalFormatting sqref="O59:O67">
     <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
@@ -10922,7 +11078,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48:K56">
+  <conditionalFormatting sqref="P59:P67">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="min"/>
@@ -10934,7 +11090,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48:L56">
+  <conditionalFormatting sqref="I70:I77">
     <cfRule type="colorScale" priority="221">
       <colorScale>
         <cfvo type="min"/>
@@ -10946,7 +11102,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48:M56">
+  <conditionalFormatting sqref="J70:J78">
     <cfRule type="colorScale" priority="220">
       <colorScale>
         <cfvo type="min"/>
@@ -10958,7 +11114,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48:N56">
+  <conditionalFormatting sqref="K70:K78">
     <cfRule type="colorScale" priority="219">
       <colorScale>
         <cfvo type="min"/>
@@ -10970,7 +11126,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O48:O56">
+  <conditionalFormatting sqref="L70:L78">
     <cfRule type="colorScale" priority="218">
       <colorScale>
         <cfvo type="min"/>
@@ -10982,7 +11138,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P48:P56">
+  <conditionalFormatting sqref="M70:M78">
     <cfRule type="colorScale" priority="217">
       <colorScale>
         <cfvo type="min"/>
@@ -10994,7 +11150,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I59:I66">
+  <conditionalFormatting sqref="N70:N78">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
@@ -11006,7 +11162,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59:J67">
+  <conditionalFormatting sqref="O70:O78">
     <cfRule type="colorScale" priority="215">
       <colorScale>
         <cfvo type="min"/>
@@ -11018,7 +11174,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K59:K67">
+  <conditionalFormatting sqref="P70:P78">
     <cfRule type="colorScale" priority="214">
       <colorScale>
         <cfvo type="min"/>
@@ -11030,7 +11186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L59:L67">
+  <conditionalFormatting sqref="I81:I88">
     <cfRule type="colorScale" priority="213">
       <colorScale>
         <cfvo type="min"/>
@@ -11042,7 +11198,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M59:M67">
+  <conditionalFormatting sqref="J81:J89">
     <cfRule type="colorScale" priority="212">
       <colorScale>
         <cfvo type="min"/>
@@ -11054,7 +11210,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N67">
+  <conditionalFormatting sqref="K81:K89">
     <cfRule type="colorScale" priority="211">
       <colorScale>
         <cfvo type="min"/>
@@ -11066,7 +11222,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O59:O67">
+  <conditionalFormatting sqref="L81:L89">
     <cfRule type="colorScale" priority="210">
       <colorScale>
         <cfvo type="min"/>
@@ -11078,7 +11234,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P59:P67">
+  <conditionalFormatting sqref="M81:M89">
     <cfRule type="colorScale" priority="209">
       <colorScale>
         <cfvo type="min"/>
@@ -11090,7 +11246,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:I77">
+  <conditionalFormatting sqref="N81:N89">
     <cfRule type="colorScale" priority="208">
       <colorScale>
         <cfvo type="min"/>
@@ -11102,7 +11258,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70:J78">
+  <conditionalFormatting sqref="O81:O89">
     <cfRule type="colorScale" priority="207">
       <colorScale>
         <cfvo type="min"/>
@@ -11114,7 +11270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K70:K78">
+  <conditionalFormatting sqref="P81:P89">
     <cfRule type="colorScale" priority="206">
       <colorScale>
         <cfvo type="min"/>
@@ -11126,7 +11282,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L70:L78">
+  <conditionalFormatting sqref="I92:I99">
     <cfRule type="colorScale" priority="205">
       <colorScale>
         <cfvo type="min"/>
@@ -11138,7 +11294,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:M78">
+  <conditionalFormatting sqref="J92:J100">
     <cfRule type="colorScale" priority="204">
       <colorScale>
         <cfvo type="min"/>
@@ -11150,7 +11306,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70:N78">
+  <conditionalFormatting sqref="K92:K100">
     <cfRule type="colorScale" priority="203">
       <colorScale>
         <cfvo type="min"/>
@@ -11162,7 +11318,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O70:O78">
+  <conditionalFormatting sqref="L92:L100">
     <cfRule type="colorScale" priority="202">
       <colorScale>
         <cfvo type="min"/>
@@ -11174,7 +11330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P70:P78">
+  <conditionalFormatting sqref="M92:M100">
     <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
@@ -11186,7 +11342,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I81:I88">
+  <conditionalFormatting sqref="N92:N100">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
@@ -11198,7 +11354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J81:J89">
+  <conditionalFormatting sqref="O92:O100">
     <cfRule type="colorScale" priority="199">
       <colorScale>
         <cfvo type="min"/>
@@ -11210,7 +11366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K81:K89">
+  <conditionalFormatting sqref="P92:P100">
     <cfRule type="colorScale" priority="198">
       <colorScale>
         <cfvo type="min"/>
@@ -11222,7 +11378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L81:L89">
+  <conditionalFormatting sqref="I103:I110">
     <cfRule type="colorScale" priority="197">
       <colorScale>
         <cfvo type="min"/>
@@ -11234,7 +11390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M81:M89">
+  <conditionalFormatting sqref="J103:J111">
     <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
@@ -11246,7 +11402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N89">
+  <conditionalFormatting sqref="K103:K111">
     <cfRule type="colorScale" priority="195">
       <colorScale>
         <cfvo type="min"/>
@@ -11258,7 +11414,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O81:O89">
+  <conditionalFormatting sqref="L103:L111">
     <cfRule type="colorScale" priority="194">
       <colorScale>
         <cfvo type="min"/>
@@ -11270,7 +11426,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P81:P89">
+  <conditionalFormatting sqref="M103:M111">
     <cfRule type="colorScale" priority="193">
       <colorScale>
         <cfvo type="min"/>
@@ -11282,7 +11438,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I92:I99">
+  <conditionalFormatting sqref="N103:N111">
     <cfRule type="colorScale" priority="192">
       <colorScale>
         <cfvo type="min"/>
@@ -11294,7 +11450,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J92:J100">
+  <conditionalFormatting sqref="O103:O111">
     <cfRule type="colorScale" priority="191">
       <colorScale>
         <cfvo type="min"/>
@@ -11306,7 +11462,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K92:K100">
+  <conditionalFormatting sqref="P103:P111">
     <cfRule type="colorScale" priority="190">
       <colorScale>
         <cfvo type="min"/>
@@ -11318,7 +11474,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L92:L100">
+  <conditionalFormatting sqref="I114:I121">
     <cfRule type="colorScale" priority="189">
       <colorScale>
         <cfvo type="min"/>
@@ -11330,7 +11486,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:M100">
+  <conditionalFormatting sqref="J114:J122">
     <cfRule type="colorScale" priority="188">
       <colorScale>
         <cfvo type="min"/>
@@ -11342,7 +11498,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N92:N100">
+  <conditionalFormatting sqref="K114:K122">
     <cfRule type="colorScale" priority="187">
       <colorScale>
         <cfvo type="min"/>
@@ -11354,7 +11510,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O92:O100">
+  <conditionalFormatting sqref="L114:L122">
     <cfRule type="colorScale" priority="186">
       <colorScale>
         <cfvo type="min"/>
@@ -11366,7 +11522,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P92:P100">
+  <conditionalFormatting sqref="M114:M122">
     <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
@@ -11378,7 +11534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:I110">
+  <conditionalFormatting sqref="N114:N122">
     <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
@@ -11390,7 +11546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J103:J111">
+  <conditionalFormatting sqref="O114:O122">
     <cfRule type="colorScale" priority="183">
       <colorScale>
         <cfvo type="min"/>
@@ -11402,7 +11558,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K103:K111">
+  <conditionalFormatting sqref="P114:P122">
     <cfRule type="colorScale" priority="182">
       <colorScale>
         <cfvo type="min"/>
@@ -11414,7 +11570,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L103:L111">
+  <conditionalFormatting sqref="I125:I132">
     <cfRule type="colorScale" priority="181">
       <colorScale>
         <cfvo type="min"/>
@@ -11426,7 +11582,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M103:M111">
+  <conditionalFormatting sqref="J125:J133">
     <cfRule type="colorScale" priority="180">
       <colorScale>
         <cfvo type="min"/>
@@ -11438,7 +11594,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N103:N111">
+  <conditionalFormatting sqref="K125:K133">
     <cfRule type="colorScale" priority="179">
       <colorScale>
         <cfvo type="min"/>
@@ -11450,7 +11606,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O103:O111">
+  <conditionalFormatting sqref="L125:L133">
     <cfRule type="colorScale" priority="178">
       <colorScale>
         <cfvo type="min"/>
@@ -11462,7 +11618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P103:P111">
+  <conditionalFormatting sqref="M125:M133">
     <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
@@ -11474,7 +11630,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I114:I121">
+  <conditionalFormatting sqref="N125:N133">
     <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
@@ -11486,7 +11642,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J114:J122">
+  <conditionalFormatting sqref="O125:O133">
     <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
@@ -11498,7 +11654,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K114:K122">
+  <conditionalFormatting sqref="P125:P133">
     <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
@@ -11510,7 +11666,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L114:L122">
+  <conditionalFormatting sqref="I136:I143">
     <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
@@ -11522,7 +11678,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M114:M122">
+  <conditionalFormatting sqref="J136:J144">
     <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
@@ -11534,7 +11690,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N114:N122">
+  <conditionalFormatting sqref="K136:K144">
     <cfRule type="colorScale" priority="171">
       <colorScale>
         <cfvo type="min"/>
@@ -11546,7 +11702,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O114:O122">
+  <conditionalFormatting sqref="L136:L144">
     <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
@@ -11558,7 +11714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P114:P122">
+  <conditionalFormatting sqref="M136:M144">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -11570,7 +11726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I125:I132">
+  <conditionalFormatting sqref="N136:N144">
     <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
@@ -11582,7 +11738,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J125:J133">
+  <conditionalFormatting sqref="O136:O144">
     <cfRule type="colorScale" priority="167">
       <colorScale>
         <cfvo type="min"/>
@@ -11594,7 +11750,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K125:K133">
+  <conditionalFormatting sqref="P136:P144">
     <cfRule type="colorScale" priority="166">
       <colorScale>
         <cfvo type="min"/>
@@ -11606,7 +11762,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L125:L133">
+  <conditionalFormatting sqref="I147:I154">
     <cfRule type="colorScale" priority="165">
       <colorScale>
         <cfvo type="min"/>
@@ -11618,7 +11774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M125:M133">
+  <conditionalFormatting sqref="J147:J155">
     <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
@@ -11630,7 +11786,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N125:N133">
+  <conditionalFormatting sqref="K147:K155">
     <cfRule type="colorScale" priority="163">
       <colorScale>
         <cfvo type="min"/>
@@ -11642,7 +11798,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O125:O133">
+  <conditionalFormatting sqref="L147:L155">
     <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
@@ -11654,7 +11810,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P125:P133">
+  <conditionalFormatting sqref="M147:M155">
     <cfRule type="colorScale" priority="161">
       <colorScale>
         <cfvo type="min"/>
@@ -11666,7 +11822,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I136:I143">
+  <conditionalFormatting sqref="N147:N155">
     <cfRule type="colorScale" priority="160">
       <colorScale>
         <cfvo type="min"/>
@@ -11678,7 +11834,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J136:J144">
+  <conditionalFormatting sqref="O147:O155">
     <cfRule type="colorScale" priority="159">
       <colorScale>
         <cfvo type="min"/>
@@ -11690,7 +11846,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K136:K144">
+  <conditionalFormatting sqref="P147:P155">
     <cfRule type="colorScale" priority="158">
       <colorScale>
         <cfvo type="min"/>
@@ -11702,7 +11858,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L136:L144">
+  <conditionalFormatting sqref="I158:I165">
     <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
@@ -11714,7 +11870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M136:M144">
+  <conditionalFormatting sqref="J158:J166">
     <cfRule type="colorScale" priority="156">
       <colorScale>
         <cfvo type="min"/>
@@ -11726,7 +11882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N144">
+  <conditionalFormatting sqref="K158:K166">
     <cfRule type="colorScale" priority="155">
       <colorScale>
         <cfvo type="min"/>
@@ -11738,7 +11894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O136:O144">
+  <conditionalFormatting sqref="L158:L166">
     <cfRule type="colorScale" priority="154">
       <colorScale>
         <cfvo type="min"/>
@@ -11750,7 +11906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P136:P144">
+  <conditionalFormatting sqref="M158:M166">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -11762,7 +11918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I147:I154">
+  <conditionalFormatting sqref="N158:N166">
     <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
@@ -11774,7 +11930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J147:J155">
+  <conditionalFormatting sqref="O158:O166">
     <cfRule type="colorScale" priority="151">
       <colorScale>
         <cfvo type="min"/>
@@ -11786,7 +11942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K147:K155">
+  <conditionalFormatting sqref="P158:P166">
     <cfRule type="colorScale" priority="150">
       <colorScale>
         <cfvo type="min"/>
@@ -11798,7 +11954,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L147:L155">
+  <conditionalFormatting sqref="I169:I176">
     <cfRule type="colorScale" priority="149">
       <colorScale>
         <cfvo type="min"/>
@@ -11810,7 +11966,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M147:M155">
+  <conditionalFormatting sqref="J169:J177">
     <cfRule type="colorScale" priority="148">
       <colorScale>
         <cfvo type="min"/>
@@ -11822,7 +11978,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N147:N155">
+  <conditionalFormatting sqref="K169:K177">
     <cfRule type="colorScale" priority="147">
       <colorScale>
         <cfvo type="min"/>
@@ -11834,7 +11990,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O147:O155">
+  <conditionalFormatting sqref="L169:L177">
     <cfRule type="colorScale" priority="146">
       <colorScale>
         <cfvo type="min"/>
@@ -11846,7 +12002,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P147:P155">
+  <conditionalFormatting sqref="M169:M177">
     <cfRule type="colorScale" priority="145">
       <colorScale>
         <cfvo type="min"/>
@@ -11858,7 +12014,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I158:I165">
+  <conditionalFormatting sqref="N169:N177">
     <cfRule type="colorScale" priority="144">
       <colorScale>
         <cfvo type="min"/>
@@ -11870,7 +12026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J158:J166">
+  <conditionalFormatting sqref="O169:O177">
     <cfRule type="colorScale" priority="143">
       <colorScale>
         <cfvo type="min"/>
@@ -11882,7 +12038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K158:K166">
+  <conditionalFormatting sqref="P169:P177">
     <cfRule type="colorScale" priority="142">
       <colorScale>
         <cfvo type="min"/>
@@ -11894,7 +12050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L158:L166">
+  <conditionalFormatting sqref="C4:H4">
     <cfRule type="colorScale" priority="141">
       <colorScale>
         <cfvo type="min"/>
@@ -11906,7 +12062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M158:M166">
+  <conditionalFormatting sqref="C5:H5">
     <cfRule type="colorScale" priority="140">
       <colorScale>
         <cfvo type="min"/>
@@ -11918,7 +12074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N158:N166">
+  <conditionalFormatting sqref="C6:H6">
     <cfRule type="colorScale" priority="139">
       <colorScale>
         <cfvo type="min"/>
@@ -11930,7 +12086,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O158:O166">
+  <conditionalFormatting sqref="C7:H7">
     <cfRule type="colorScale" priority="138">
       <colorScale>
         <cfvo type="min"/>
@@ -11942,7 +12098,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P158:P166">
+  <conditionalFormatting sqref="C8:H8">
     <cfRule type="colorScale" priority="137">
       <colorScale>
         <cfvo type="min"/>
@@ -11954,7 +12110,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I169:I176">
+  <conditionalFormatting sqref="C9:H9">
     <cfRule type="colorScale" priority="136">
       <colorScale>
         <cfvo type="min"/>
@@ -11966,7 +12122,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J169:J177">
+  <conditionalFormatting sqref="C10:H10">
     <cfRule type="colorScale" priority="135">
       <colorScale>
         <cfvo type="min"/>
@@ -11978,7 +12134,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K169:K177">
+  <conditionalFormatting sqref="C11:H11">
     <cfRule type="colorScale" priority="134">
       <colorScale>
         <cfvo type="min"/>
@@ -11990,7 +12146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L169:L177">
+  <conditionalFormatting sqref="C15:H15">
     <cfRule type="colorScale" priority="133">
       <colorScale>
         <cfvo type="min"/>
@@ -12002,7 +12158,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M169:M177">
+  <conditionalFormatting sqref="C16:H16">
     <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
@@ -12014,7 +12170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N169:N177">
+  <conditionalFormatting sqref="C17:H17">
     <cfRule type="colorScale" priority="131">
       <colorScale>
         <cfvo type="min"/>
@@ -12026,7 +12182,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O169:O177">
+  <conditionalFormatting sqref="C18:H18">
     <cfRule type="colorScale" priority="130">
       <colorScale>
         <cfvo type="min"/>
@@ -12038,7 +12194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P169:P177">
+  <conditionalFormatting sqref="C19:H19">
     <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
@@ -12050,7 +12206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H4">
+  <conditionalFormatting sqref="C20:H20">
     <cfRule type="colorScale" priority="128">
       <colorScale>
         <cfvo type="min"/>
@@ -12062,7 +12218,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:H5">
+  <conditionalFormatting sqref="C21:H21">
     <cfRule type="colorScale" priority="127">
       <colorScale>
         <cfvo type="min"/>
@@ -12074,7 +12230,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:H6">
+  <conditionalFormatting sqref="C22:H22">
     <cfRule type="colorScale" priority="126">
       <colorScale>
         <cfvo type="min"/>
@@ -12086,7 +12242,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:H7">
+  <conditionalFormatting sqref="C26:H26">
     <cfRule type="colorScale" priority="125">
       <colorScale>
         <cfvo type="min"/>
@@ -12098,7 +12254,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:H8">
+  <conditionalFormatting sqref="C27:H27">
     <cfRule type="colorScale" priority="124">
       <colorScale>
         <cfvo type="min"/>
@@ -12110,7 +12266,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:H9">
+  <conditionalFormatting sqref="C28:H28">
     <cfRule type="colorScale" priority="123">
       <colorScale>
         <cfvo type="min"/>
@@ -12122,7 +12278,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:H10">
+  <conditionalFormatting sqref="C29:H29">
     <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
@@ -12134,7 +12290,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:H11">
+  <conditionalFormatting sqref="C30:H30">
     <cfRule type="colorScale" priority="121">
       <colorScale>
         <cfvo type="min"/>
@@ -12146,7 +12302,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:H15">
+  <conditionalFormatting sqref="C31:H31">
     <cfRule type="colorScale" priority="120">
       <colorScale>
         <cfvo type="min"/>
@@ -12158,7 +12314,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:H16">
+  <conditionalFormatting sqref="C32:H32">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min"/>
@@ -12170,7 +12326,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:H17">
+  <conditionalFormatting sqref="C33:H33">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min"/>
@@ -12182,7 +12338,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:H18">
+  <conditionalFormatting sqref="C37:H37">
     <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
@@ -12194,7 +12350,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19:H19">
+  <conditionalFormatting sqref="C38:H38">
     <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
@@ -12206,7 +12362,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:H20">
+  <conditionalFormatting sqref="C39:H39">
     <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
@@ -12218,7 +12374,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:H21">
+  <conditionalFormatting sqref="C40:H40">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
@@ -12230,7 +12386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:H22">
+  <conditionalFormatting sqref="C41:H41">
     <cfRule type="colorScale" priority="113">
       <colorScale>
         <cfvo type="min"/>
@@ -12242,7 +12398,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:H26">
+  <conditionalFormatting sqref="C42:H42">
     <cfRule type="colorScale" priority="112">
       <colorScale>
         <cfvo type="min"/>
@@ -12254,7 +12410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:H27">
+  <conditionalFormatting sqref="C43:H43">
     <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
@@ -12266,7 +12422,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:H28">
+  <conditionalFormatting sqref="C44:H44">
     <cfRule type="colorScale" priority="110">
       <colorScale>
         <cfvo type="min"/>
@@ -12278,7 +12434,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:H29">
+  <conditionalFormatting sqref="C48:H48">
     <cfRule type="colorScale" priority="109">
       <colorScale>
         <cfvo type="min"/>
@@ -12290,7 +12446,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:H30">
+  <conditionalFormatting sqref="C49:H49">
     <cfRule type="colorScale" priority="108">
       <colorScale>
         <cfvo type="min"/>
@@ -12302,7 +12458,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:H31">
+  <conditionalFormatting sqref="C50:H50">
     <cfRule type="colorScale" priority="107">
       <colorScale>
         <cfvo type="min"/>
@@ -12314,7 +12470,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:H32">
+  <conditionalFormatting sqref="C51:H51">
     <cfRule type="colorScale" priority="106">
       <colorScale>
         <cfvo type="min"/>
@@ -12326,7 +12482,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:H33">
+  <conditionalFormatting sqref="C52:H52">
     <cfRule type="colorScale" priority="105">
       <colorScale>
         <cfvo type="min"/>
@@ -12338,7 +12494,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:H37">
+  <conditionalFormatting sqref="C53:H53">
     <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
@@ -12350,7 +12506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38:H38">
+  <conditionalFormatting sqref="C54:H54">
     <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
@@ -12362,7 +12518,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:H39">
+  <conditionalFormatting sqref="C55:H55">
     <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
@@ -12374,7 +12530,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:H40">
+  <conditionalFormatting sqref="C59:H59">
     <cfRule type="colorScale" priority="101">
       <colorScale>
         <cfvo type="min"/>
@@ -12386,7 +12542,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41:H41">
+  <conditionalFormatting sqref="C60:H60">
     <cfRule type="colorScale" priority="100">
       <colorScale>
         <cfvo type="min"/>
@@ -12398,7 +12554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:H42">
+  <conditionalFormatting sqref="C61:H61">
     <cfRule type="colorScale" priority="99">
       <colorScale>
         <cfvo type="min"/>
@@ -12410,7 +12566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C43:H43">
+  <conditionalFormatting sqref="C62:H62">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -12422,7 +12578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:H44">
+  <conditionalFormatting sqref="C63:H63">
     <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
@@ -12434,7 +12590,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48:H48">
+  <conditionalFormatting sqref="C64:H64">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -12446,7 +12602,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49:H49">
+  <conditionalFormatting sqref="C65:H65">
     <cfRule type="colorScale" priority="95">
       <colorScale>
         <cfvo type="min"/>
@@ -12458,7 +12614,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50:H50">
+  <conditionalFormatting sqref="C66:H66">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -12470,7 +12626,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51:H51">
+  <conditionalFormatting sqref="C70:H70">
     <cfRule type="colorScale" priority="93">
       <colorScale>
         <cfvo type="min"/>
@@ -12482,7 +12638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:H52">
+  <conditionalFormatting sqref="C71:H71">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -12494,7 +12650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:H53">
+  <conditionalFormatting sqref="C72:H72">
     <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
@@ -12506,7 +12662,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C54:H54">
+  <conditionalFormatting sqref="C73:H73">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -12518,7 +12674,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C55:H55">
+  <conditionalFormatting sqref="C74:H74">
     <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
@@ -12530,7 +12686,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:H59">
+  <conditionalFormatting sqref="C75:H75">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -12542,7 +12698,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:H60">
+  <conditionalFormatting sqref="C76:H76">
     <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
@@ -12554,7 +12710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:H61">
+  <conditionalFormatting sqref="C77:H77">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
@@ -12566,7 +12722,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:H62">
+  <conditionalFormatting sqref="C81:H81">
     <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
@@ -12578,7 +12734,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:H63">
+  <conditionalFormatting sqref="C82:H82">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -12590,7 +12746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64:H64">
+  <conditionalFormatting sqref="C83:H83">
     <cfRule type="colorScale" priority="83">
       <colorScale>
         <cfvo type="min"/>
@@ -12602,7 +12758,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65:H65">
+  <conditionalFormatting sqref="C84:H84">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -12614,7 +12770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C66:H66">
+  <conditionalFormatting sqref="C85:H85">
     <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
@@ -12626,7 +12782,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:H70">
+  <conditionalFormatting sqref="C86:H86">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
@@ -12638,7 +12794,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:H71">
+  <conditionalFormatting sqref="C87:H87">
     <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
@@ -12650,7 +12806,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:H72">
+  <conditionalFormatting sqref="C88:H88">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
@@ -12662,7 +12818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73:H73">
+  <conditionalFormatting sqref="C92:H92">
     <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
@@ -12674,7 +12830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74:H74">
+  <conditionalFormatting sqref="C93:H93">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -12686,7 +12842,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C75:H75">
+  <conditionalFormatting sqref="C94:H94">
     <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
@@ -12698,7 +12854,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76:H76">
+  <conditionalFormatting sqref="C96:H96">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
@@ -12710,7 +12866,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77:H77">
+  <conditionalFormatting sqref="C95:H95">
     <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
@@ -12722,7 +12878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81:H81">
+  <conditionalFormatting sqref="C97:H97">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="min"/>
@@ -12734,7 +12890,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:H82">
+  <conditionalFormatting sqref="C98:H98">
     <cfRule type="colorScale" priority="71">
       <colorScale>
         <cfvo type="min"/>
@@ -12746,7 +12902,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:H83">
+  <conditionalFormatting sqref="C99:H99">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="min"/>
@@ -12758,7 +12914,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84:H84">
+  <conditionalFormatting sqref="C103:H103">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -12770,7 +12926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85:H85">
+  <conditionalFormatting sqref="C104:H104">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
@@ -12782,7 +12938,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86:H86">
+  <conditionalFormatting sqref="C105:H105">
     <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
@@ -12794,7 +12950,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87:H87">
+  <conditionalFormatting sqref="C106:H106">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -12806,7 +12962,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:H88">
+  <conditionalFormatting sqref="C107:H107">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -12818,7 +12974,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:H92">
+  <conditionalFormatting sqref="C108:H108">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -12830,7 +12986,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C93:H93">
+  <conditionalFormatting sqref="C109:H109">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -12842,7 +12998,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94:H94">
+  <conditionalFormatting sqref="C110:H110">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -12854,7 +13010,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96:H96">
+  <conditionalFormatting sqref="C114:H114">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -12866,7 +13022,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95:H95">
+  <conditionalFormatting sqref="C115:H115">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -12878,7 +13034,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97:H97">
+  <conditionalFormatting sqref="C116:H116">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -12890,7 +13046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98:H98">
+  <conditionalFormatting sqref="C117:H117">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -12902,7 +13058,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99:H99">
+  <conditionalFormatting sqref="C118:H118">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -12914,7 +13070,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:H103">
+  <conditionalFormatting sqref="C119:H119">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -12926,7 +13082,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:H104">
+  <conditionalFormatting sqref="C120:H120">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -12938,7 +13094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105:H105">
+  <conditionalFormatting sqref="C121:H121">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
@@ -12950,7 +13106,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106:H106">
+  <conditionalFormatting sqref="C125:H125">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
@@ -12962,7 +13118,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107:H107">
+  <conditionalFormatting sqref="C126:H126">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
@@ -12974,7 +13130,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108:H108">
+  <conditionalFormatting sqref="C127:H127">
     <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
@@ -12986,7 +13142,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C109:H109">
+  <conditionalFormatting sqref="C128:H128">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
@@ -12998,7 +13154,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110:H110">
+  <conditionalFormatting sqref="C129:H129">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -13010,7 +13166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114:H114">
+  <conditionalFormatting sqref="C130:H130">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -13022,7 +13178,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115:H115">
+  <conditionalFormatting sqref="C131:H131">
     <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
@@ -13034,7 +13190,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116:H116">
+  <conditionalFormatting sqref="C132:H132">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -13046,7 +13202,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C117:H117">
+  <conditionalFormatting sqref="C136:H136">
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -13058,7 +13214,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C118:H118">
+  <conditionalFormatting sqref="C137:H137">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="min"/>
@@ -13070,7 +13226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119:H119">
+  <conditionalFormatting sqref="C138:H138">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -13082,7 +13238,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120:H120">
+  <conditionalFormatting sqref="C139:H139">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
@@ -13094,7 +13250,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121:H121">
+  <conditionalFormatting sqref="C140:H140">
     <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
@@ -13106,7 +13262,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125:H125">
+  <conditionalFormatting sqref="C141:H141">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -13118,7 +13274,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126:H126">
+  <conditionalFormatting sqref="C142:H142">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -13130,7 +13286,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:H127">
+  <conditionalFormatting sqref="C143:H143">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -13142,7 +13298,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128:H128">
+  <conditionalFormatting sqref="C147:H147">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -13154,7 +13310,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129:H129">
+  <conditionalFormatting sqref="C148:H148">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -13166,7 +13322,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130:H130">
+  <conditionalFormatting sqref="C149:H149">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -13178,7 +13334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131:H131">
+  <conditionalFormatting sqref="C150:H150">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -13190,7 +13346,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132:H132">
+  <conditionalFormatting sqref="C151:H151">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -13202,7 +13358,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136:H136">
+  <conditionalFormatting sqref="C152:H152">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -13214,7 +13370,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C137:H137">
+  <conditionalFormatting sqref="C153:H153">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -13226,7 +13382,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C138:H138">
+  <conditionalFormatting sqref="C154:H154">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -13238,7 +13394,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139:H139">
+  <conditionalFormatting sqref="C158:H158">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -13250,7 +13406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140:H140">
+  <conditionalFormatting sqref="C159:H159">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -13262,7 +13418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141:H141">
+  <conditionalFormatting sqref="C160:H160">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -13274,7 +13430,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142:H142">
+  <conditionalFormatting sqref="C161:H161">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -13286,7 +13442,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143:H143">
+  <conditionalFormatting sqref="C162:H162">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -13298,7 +13454,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147:H147">
+  <conditionalFormatting sqref="C163:H163">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -13310,7 +13466,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148:H148">
+  <conditionalFormatting sqref="C164:H164">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -13322,7 +13478,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C149:H149">
+  <conditionalFormatting sqref="C165:H165">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -13334,7 +13490,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150:H150">
+  <conditionalFormatting sqref="C169:H169">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -13346,7 +13502,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151:H151">
+  <conditionalFormatting sqref="C170:H170">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -13358,7 +13514,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C152:H152">
+  <conditionalFormatting sqref="C171:H171">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13370,7 +13526,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153:H153">
+  <conditionalFormatting sqref="C172:H172">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -13382,7 +13538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C154:H154">
+  <conditionalFormatting sqref="C173:H173">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -13394,7 +13550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158:H158">
+  <conditionalFormatting sqref="C174:H174">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -13406,7 +13562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C159:H159">
+  <conditionalFormatting sqref="C175:H175">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -13418,7 +13574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C160:H160">
+  <conditionalFormatting sqref="C176:H176">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -13430,7 +13586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C161:H161">
+  <conditionalFormatting sqref="T4:Y4">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13442,7 +13598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162:H162">
+  <conditionalFormatting sqref="T5:Y5">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -13454,7 +13610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C163:H163">
+  <conditionalFormatting sqref="T6:Y6">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -13466,7 +13622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C164:H164">
+  <conditionalFormatting sqref="T7:Y7">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -13478,7 +13634,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C165:H165">
+  <conditionalFormatting sqref="T8:Y8">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -13490,7 +13646,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169:H169">
+  <conditionalFormatting sqref="T9:Y9">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -13502,7 +13658,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C170:H170">
+  <conditionalFormatting sqref="T10:Y10">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13514,7 +13670,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C171:H171">
+  <conditionalFormatting sqref="T11:Y11">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -13526,7 +13682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172:H172">
+  <conditionalFormatting sqref="T12:Y12">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -13538,7 +13694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C173:H173">
+  <conditionalFormatting sqref="T13:Y13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -13550,7 +13706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C174:H174">
+  <conditionalFormatting sqref="T14:Y14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -13562,20 +13718,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C175:H175">
+  <conditionalFormatting sqref="T15:Y15">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C176:H176">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
